--- a/static/templates_base_interna/4 AUDITORIA AGIL/1 Macroprocesos y Procesos.xlsx
+++ b/static/templates_base_interna/4 AUDITORIA AGIL/1 Macroprocesos y Procesos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\2 ARCHIVOS AUDITORIA INTERNA\4 AUDITORIA AGIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\4 AUDITORIA AGIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329F9E89-1FF1-4D6A-B502-09F285CD0636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8250"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MACROPROCESOS" sheetId="4" r:id="rId1"/>
@@ -467,9 +468,6 @@
     <t>Campañas de información y concientización.</t>
   </si>
   <si>
-    <t xml:space="preserve">                  Auditoría de Procesos</t>
-  </si>
-  <si>
     <t>Elaboro</t>
   </si>
   <si>
@@ -479,13 +477,16 @@
     <t>Reviso</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                     Entidad XXXXXXX </t>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoría de Procesos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -678,11 +679,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -694,9 +704,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,14 +732,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -749,8 +748,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +802,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -847,7 +869,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1198,11 +1226,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,43 +1247,43 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>151</v>
+      <c r="B5" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="B6" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="30"/>
       <c r="D6" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="29" t="s">
         <v>0</v>
       </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="4"/>
@@ -1278,10 +1306,10 @@
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4"/>
@@ -1290,10 +1318,10 @@
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4"/>
@@ -1302,10 +1330,10 @@
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
@@ -1314,10 +1342,10 @@
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="4"/>
@@ -1326,10 +1354,10 @@
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="4"/>
@@ -1338,10 +1366,10 @@
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="4"/>
@@ -1350,10 +1378,10 @@
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="4"/>
@@ -1362,10 +1390,10 @@
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="4"/>
@@ -1374,10 +1402,10 @@
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="4"/>
@@ -1386,10 +1414,10 @@
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="4"/>
@@ -1398,10 +1426,10 @@
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="4"/>
@@ -1410,10 +1438,10 @@
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="4"/>
@@ -1422,10 +1450,10 @@
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="4"/>
@@ -1434,10 +1462,10 @@
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="4"/>
@@ -1446,10 +1474,10 @@
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="4"/>
@@ -1458,10 +1486,10 @@
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="4"/>
@@ -1470,38 +1498,38 @@
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="4"/>
@@ -1510,10 +1538,10 @@
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="4"/>
@@ -1522,10 +1550,10 @@
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="4"/>
@@ -1534,10 +1562,10 @@
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="4"/>
@@ -1546,10 +1574,10 @@
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="4"/>
@@ -1558,10 +1586,10 @@
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="4"/>
@@ -1570,10 +1598,10 @@
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="4"/>
@@ -1582,10 +1610,10 @@
     </row>
     <row r="35" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="4"/>
@@ -1594,10 +1622,10 @@
     </row>
     <row r="36" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D36" s="4"/>
@@ -1606,10 +1634,10 @@
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="4"/>
@@ -1618,10 +1646,10 @@
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="4"/>
@@ -1630,10 +1658,10 @@
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="4"/>
@@ -1642,10 +1670,10 @@
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D40" s="4"/>
@@ -1654,10 +1682,10 @@
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D41" s="4"/>
@@ -1666,10 +1694,10 @@
     </row>
     <row r="42" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="4"/>
@@ -1678,10 +1706,10 @@
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D43" s="4"/>
@@ -1690,10 +1718,10 @@
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="4"/>
@@ -1702,10 +1730,10 @@
     </row>
     <row r="45" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="4"/>
@@ -1714,10 +1742,10 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D46" s="4"/>
@@ -1726,10 +1754,10 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="4"/>
@@ -1738,10 +1766,10 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D48" s="4"/>
@@ -1750,10 +1778,10 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="4"/>
@@ -1762,10 +1790,10 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D50" s="4"/>
@@ -1774,10 +1802,10 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>80</v>
       </c>
       <c r="D51" s="4"/>
@@ -1786,34 +1814,34 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="19" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="4"/>
@@ -1822,10 +1850,10 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D56" s="4"/>
@@ -1834,10 +1862,10 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D57" s="4"/>
@@ -1846,10 +1874,10 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="21" t="s">
         <v>86</v>
       </c>
       <c r="D58" s="4"/>
@@ -1858,10 +1886,10 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D59" s="4"/>
@@ -1870,10 +1898,10 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="4"/>
@@ -1882,10 +1910,10 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="21" t="s">
         <v>92</v>
       </c>
       <c r="D61" s="4"/>
@@ -1894,10 +1922,10 @@
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="21" t="s">
         <v>94</v>
       </c>
       <c r="D62" s="4"/>
@@ -1906,10 +1934,10 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D63" s="4"/>
@@ -1918,10 +1946,10 @@
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D64" s="4"/>
@@ -1930,10 +1958,10 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="21" t="s">
         <v>99</v>
       </c>
       <c r="D65" s="4"/>
@@ -1942,10 +1970,10 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D66" s="4"/>
@@ -1954,10 +1982,10 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="20" t="s">
         <v>102</v>
       </c>
       <c r="D67" s="4"/>
@@ -1966,10 +1994,10 @@
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="21" t="s">
         <v>103</v>
       </c>
       <c r="D68" s="4"/>
@@ -1978,10 +2006,10 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D69" s="4"/>
@@ -1990,10 +2018,10 @@
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D70" s="4"/>
@@ -2002,10 +2030,10 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D71" s="4"/>
@@ -2014,10 +2042,10 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="21" t="s">
         <v>111</v>
       </c>
       <c r="D72" s="4"/>
@@ -2026,10 +2054,10 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D73" s="4"/>
@@ -2038,10 +2066,10 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D74" s="4"/>
@@ -2050,10 +2078,10 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D75" s="4"/>
@@ -2062,10 +2090,10 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="21" t="s">
         <v>116</v>
       </c>
       <c r="D76" s="4"/>
@@ -2074,10 +2102,10 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D77" s="4"/>
@@ -2086,10 +2114,10 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="20" t="s">
         <v>118</v>
       </c>
       <c r="D78" s="4"/>
@@ -2098,10 +2126,10 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="21" t="s">
         <v>119</v>
       </c>
       <c r="D79" s="4"/>
@@ -2110,10 +2138,10 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="21" t="s">
         <v>120</v>
       </c>
       <c r="D80" s="4"/>
@@ -2122,10 +2150,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D81" s="4"/>
@@ -2134,10 +2162,10 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="20" t="s">
         <v>122</v>
       </c>
       <c r="D82" s="4"/>
@@ -2146,10 +2174,10 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="21" t="s">
         <v>123</v>
       </c>
       <c r="D83" s="4"/>
@@ -2158,10 +2186,10 @@
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D84" s="4"/>
@@ -2170,10 +2198,10 @@
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D85" s="4"/>
@@ -2182,10 +2210,10 @@
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="21" t="s">
         <v>128</v>
       </c>
       <c r="D86" s="4"/>
@@ -2194,10 +2222,10 @@
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D87" s="4"/>
@@ -2206,10 +2234,10 @@
     </row>
     <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>132</v>
       </c>
       <c r="D88" s="4"/>
@@ -2218,10 +2246,10 @@
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D89" s="4"/>
@@ -2230,10 +2258,10 @@
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D90" s="4"/>
@@ -2242,10 +2270,10 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="21" t="s">
         <v>138</v>
       </c>
       <c r="D91" s="4"/>
@@ -2254,10 +2282,10 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="20" t="s">
         <v>140</v>
       </c>
       <c r="D92" s="4"/>
@@ -2266,10 +2294,10 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="21" t="s">
         <v>142</v>
       </c>
       <c r="D93" s="4"/>
@@ -2278,10 +2306,10 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="21" t="s">
         <v>144</v>
       </c>
       <c r="D94" s="4"/>
@@ -2290,10 +2318,10 @@
     </row>
     <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="16" t="s">
         <v>80</v>
       </c>
       <c r="D95" s="4"/>
@@ -2302,10 +2330,10 @@
     </row>
     <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C96" s="27"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -2317,9 +2345,12 @@
       <c r="C97" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
